--- a/config_debug/sys_binding_phone.xlsx
+++ b/config_debug/sys_binding_phone.xlsx
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩具锤 x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cpl_cjj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,11 +69,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_btn_sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁定 x2</t>
+    <t>玩具锤x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zjd_icon14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -417,10 +417,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -440,10 +440,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -468,13 +468,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -485,13 +485,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/sys_binding_phone.xlsx
+++ b/config_debug/sys_binding_phone.xlsx
@@ -77,7 +77,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zjd_icon14</t>
+    <t>zjd_icon_wjc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
